--- a/biology/Botanique/Pandanus_amaryllifolius/Pandanus_amaryllifolius.xlsx
+++ b/biology/Botanique/Pandanus_amaryllifolius/Pandanus_amaryllifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pandanus amaryllifolius est une espèce particulière de pandanus, plante tropicale de la famille des Pandanacées, connue pour son utilisation dans beaucoup de cuisines de l'Asie du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Occurrence et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'elle soit connue pour être une plante côtière en Asie qui pousse mieux dans les marais, elle est rare à l'état sauvage. Les îles Maluku en Indonésie sont un lieu d'origine présumé.
 </t>
@@ -542,10 +556,12 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rampante avec de longues feuilles étroites. 
-L'arôme caractéristique du pandan est provoqué par le composé aromatique 2-Acétyl-1-pyrroline[1], présent dans les papilles épidermiques inférieures; le composé est utilisé comme substitut pour donner à un riz fade des parfums évoquant le riz thaï et le riz basmati. 
+L'arôme caractéristique du pandan est provoqué par le composé aromatique 2-Acétyl-1-pyrroline, présent dans les papilles épidermiques inférieures; le composé est utilisé comme substitut pour donner à un riz fade des parfums évoquant le riz thaï et le riz basmati. 
 Bien que la plante soit rare dans la nature, elle est largement cultivée. 
 C'est une plante verte avec des bouquets en forme d'éventail de longues feuilles étroites en forme de lame et des racines aériennes ligneuses.
 La plante est stérile, donnant très rarement des fleurs et se propage par bouturage.
@@ -577,7 +593,9 @@
           <t>Utilisation culinaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont grasses et odorantes, le jus filtré de feuilles mixées est utilisé comme colorant et arôme alimentaire pour différentes préparations sucrées (jus filtré de feuilles mixées, crèmes desserts, gâteaux, Gâteau au pandan), plats salés (riz). L'arôme est peu prononcé, évoquant des parfums de noisette et de vanille, souvent utilisé comme exhausteur de goût.
 Au Sri Lanka , on l'appelle rampé et il est cultivé presque dans tous les ménages. La plupart des plats sri-lankais utilisent ces feuilles pour l'arôme avec des feuilles de curry. 
@@ -586,7 +604,7 @@
 En Thailande, on le nomme bay teuy (ใบเตย), il est également utilisé dans le plat kai ho bai tuey, poulet frit enveloppé dans des feuilles de pandanus, ainsi que pour farcir le poisson au barbecue. Les feuilles peuvent être tressées en un panier qui sert de contenant pour la cuisson du riz à la vapeur ou au barbecue. Il est utilisé dans le dessert Khanom chan, succession de strates de lait coco sucré et de farine de manioc.
 Pour son utilisation en cuisine, on la trouve souvent dans les boutiques de cuisine asiatique sous son nom vietnamien de Lá dứa. Le jus extrait de ces feuilles de pandanus, d'un goût amer, est couramment utilisée dans les plats vietnamiens à base de riz gluant comme le bánh chuối (gâteau à la banane).
 Le nom indonésien est pandan wangi, le nom khmer sloek taoey (ស្លឹកតើយ) et le nom birman soon-mhway (ဆွမ်းမွှေး).
-Ces feuilles de pandanus ont un effet répulsif sur les cafards[2].
+Ces feuilles de pandanus ont un effet répulsif sur les cafards.
 </t>
         </is>
       </c>
@@ -615,14 +633,16 @@
           <t>Utilisation en médecine traditionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de P. amaryllifolius ont un certain nombre d'utilisations médicinales locales. On pense que les extraits de feuilles réduisent la fièvre, soulagent l'indigestion et les flatulences et agissent comme un cardiotonique[3].
-Les feuilles sont utilisées dans l'industrie du parfum et sont également importantes sur le plan médical comme diurétique, antidiabétique et pour les maladies de la peau[4]. Les feuilles sont infusées dans l'huile de coco pendant plusieurs jours et l'huile est ensuite utilisée pour les problèmes rhumatismaux. L'infusion de feuilles est prise en interne comme sédatif dans L'akathisie. 
-En Thaïlande, il s'agit d'un médicament traditionnel pour le traitement du diabète[5].
-Des études ont établi une activité répulsive significative de P. amaryllifolius contre les blattes américaines (Periplaneta americana L.) [6], mais des effets similaires contre d'autres espèces de blattes n'ont pas encore été étudiés. On dit que les chauffeurs de taxi de Singapour et de Malaisie gardent des grappes de P. amaryllifolius) dans leurs taxis pour éloigner les cafards.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de P. amaryllifolius ont un certain nombre d'utilisations médicinales locales. On pense que les extraits de feuilles réduisent la fièvre, soulagent l'indigestion et les flatulences et agissent comme un cardiotonique.
+Les feuilles sont utilisées dans l'industrie du parfum et sont également importantes sur le plan médical comme diurétique, antidiabétique et pour les maladies de la peau. Les feuilles sont infusées dans l'huile de coco pendant plusieurs jours et l'huile est ensuite utilisée pour les problèmes rhumatismaux. L'infusion de feuilles est prise en interne comme sédatif dans L'akathisie. 
+En Thaïlande, il s'agit d'un médicament traditionnel pour le traitement du diabète.
+Des études ont établi une activité répulsive significative de P. amaryllifolius contre les blattes américaines (Periplaneta americana L.) , mais des effets similaires contre d'autres espèces de blattes n'ont pas encore été étudiés. On dit que les chauffeurs de taxi de Singapour et de Malaisie gardent des grappes de P. amaryllifolius) dans leurs taxis pour éloigner les cafards.
 En Malaisie, les feuilles sont utilisées traditionnellement comme bain médicinal pour les femmes après l'accouchement et également pour le lavage des cheveux. 
-Aux Philippines, le Pandanus amaryllifolius est également utilisé pour préparer de la lotion avec des cendres et du vinaigre pour traiter la rougeole, comme purgatif, dans le traitement de la lèpre, des maux de gorge et comme diurétique[7]. En outre, l'extrait de feuilles aurait des propriétés antioxydantes[8],[9]. Traditionnellement, un mélange de henné, de Limau purut (combava), de lait de coco, de lait et de feuille de P. amaryllifolius est utilisé comme shampooing parfumé.
+Aux Philippines, le Pandanus amaryllifolius est également utilisé pour préparer de la lotion avec des cendres et du vinaigre pour traiter la rougeole, comme purgatif, dans le traitement de la lèpre, des maux de gorge et comme diurétique. En outre, l'extrait de feuilles aurait des propriétés antioxydantes,. Traditionnellement, un mélange de henné, de Limau purut (combava), de lait de coco, de lait et de feuille de P. amaryllifolius est utilisé comme shampooing parfumé.
 P. amaryllifolius a l'avantage secondaire d'offrir un plaisir visuel et olfactif.
 </t>
         </is>
